--- a/public/excels/empowerment_products.xlsx
+++ b/public/excels/empowerment_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HISOBXONA\on_doc\src\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25925935-55C9-442B-BCD8-C35495B333E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E1386-5075-4915-B8ED-33C9811B04F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C87F9BC9-34DF-4294-A32C-1C5DD8196BA3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>№</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Product 2</t>
   </si>
 </sst>
 </file>
@@ -393,9 +396,6 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,6 +403,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9523B682-4B9E-40B2-9EED-05EF021AB93E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,10 +746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -757,10 +760,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -788,6 +791,20 @@
       </c>
       <c r="D4">
         <v>1212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
